--- a/Plan11.xlsx
+++ b/Plan11.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ung-Dung-Quan-Ly-Thu-Muc-Tap-Tin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20025" windowHeight="7875"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -48,9 +53,6 @@
     <t>14/9/2016</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>Thu thập yêu cầu</t>
   </si>
   <si>
@@ -75,12 +77,6 @@
     <t>28/9/2016</t>
   </si>
   <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
-    <t>Thiết kế Database</t>
-  </si>
-  <si>
     <t>Code view</t>
   </si>
   <si>
@@ -109,13 +105,19 @@
   </si>
   <si>
     <t>Launch</t>
+  </si>
+  <si>
+    <t>Hoàn Thành</t>
+  </si>
+  <si>
+    <t>Đang Hoàn Thành</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,18 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -231,6 +220,9 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,6 +232,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -288,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +539,7 @@
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,185 +578,165 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5">
-        <v>42500</v>
+      <c r="C5" s="3">
+        <v>42531</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
         <v>42531</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
         <v>42531</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5">
-        <v>42531</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="2">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3">
+        <v>42440</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5">
-        <v>42440</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="8">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6">
         <v>42501</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D10" s="6">
         <v>42532</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan11.xlsx
+++ b/Plan11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ung-Dung-Quan-Ly-Thu-Muc-Tap-Tin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoaiCa Nghia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20025" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -101,33 +101,20 @@
     <t>30/10/2016</t>
   </si>
   <si>
-    <t>Not started</t>
-  </si>
-  <si>
     <t>Launch</t>
   </si>
   <si>
     <t>Hoàn Thành</t>
-  </si>
-  <si>
-    <t>Đang Hoàn Thành</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,9 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -211,16 +198,13 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +514,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,8 +562,8 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,8 +582,8 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>28</v>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,8 +602,8 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,8 +622,8 @@
       <c r="E5" s="2">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,8 +642,8 @@
       <c r="E6" s="2">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,8 +662,8 @@
       <c r="E7" s="2">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,8 +682,8 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,22 +702,22 @@
       <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>42501</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>42532</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="2"/>

--- a/Plan11.xlsx
+++ b/Plan11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoaiCa Nghia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoaiCa Nghia\Desktop\n11_PTUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>

--- a/Plan11.xlsx
+++ b/Plan11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoaiCa Nghia\Desktop\n11_PTUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoaiCa Nghia\Desktop\PTUD\new1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -514,7 +514,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,9 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan11.xlsx
+++ b/Plan11.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Thu thập yêu cầu</t>
-  </si>
-  <si>
-    <t>Huỳnh Gia Mạnh</t>
   </si>
   <si>
     <t>15/9/2016</t>
@@ -514,7 +511,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -571,44 +568,44 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -617,84 +614,84 @@
         <v>42531</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>42531</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>21</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>42531</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>42440</v>
@@ -703,12 +700,12 @@
         <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
@@ -721,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
